--- a/static/files/InfectionDataTemplate.xlsx
+++ b/static/files/InfectionDataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertobackhoff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patriciogutierrezampudia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5137F35-0E64-F24E-9D56-51D44C76A5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A3CA9-1A49-E145-BAC3-F65F68F8BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="680" windowWidth="28800" windowHeight="18000" xr2:uid="{14029453-A8B1-2B49-85F7-B5EFA4F3EE9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{14029453-A8B1-2B49-85F7-B5EFA4F3EE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Period</t>
   </si>
@@ -51,7 +51,7 @@
     <t>MM/DD/YYYY</t>
   </si>
   <si>
-    <t>#</t>
+    <t>###</t>
   </si>
   <si>
     <r>
@@ -73,17 +73,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Please fill in the Infection Count and Sample Size Columns with your data. Leave the Period column data as it is. The date column is optional to fill in. If you choose to fill it in, please use a MM/DD/YYYY format. Also feel free to add more data if the 50 period count is not sufficient. If that is the case, please increase the period count to match your desried data timeframe. </t>
+      <t xml:space="preserve"> Please fill in the "Date",  "Infection Count" and "Sample Size" columns with your data. Leave the Period column data as it is. Make sure that all of the data you enter has a corresponding "Period" in column A. Please do not change any of the column names.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Infection Rate </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,10 +243,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68E2C08-5229-6441-ACDB-77240B15715E}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,10 +603,9 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,513 +618,460 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:K7"/>
+    <mergeCell ref="E1:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
